--- a/data/trans_orig/P1426-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADBC3B8B-9AC4-431D-8EE6-EC087D38AC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC8DDF96-0C58-42DD-BFD6-51EC9FB1E812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DC4D319-84A2-434B-B129-A9973A751477}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E556E71-AE3D-4485-9EDA-9FBE6CFB2950}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -124,868 +124,868 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,84%</t>
+    <t>1,8%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,21%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>95,62%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>94,84%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>86,16%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7D1404-9AC8-4247-8319-E0B58A3F325C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EAC97B-1FD8-4A64-8A8E-66043DD89621}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1709,10 +1709,10 @@
         <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,13 +1727,13 @@
         <v>682265</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>568</v>
@@ -1742,13 +1742,13 @@
         <v>606507</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>1232</v>
@@ -1757,13 +1757,13 @@
         <v>1288772</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,7 +1819,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1831,13 +1831,13 @@
         <v>4946</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1846,13 +1846,13 @@
         <v>4723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -1861,13 +1861,13 @@
         <v>9669</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1882,13 @@
         <v>676917</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>662</v>
@@ -1897,13 +1897,13 @@
         <v>704851</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1308</v>
@@ -1912,13 +1912,13 @@
         <v>1381768</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1986,13 +1986,13 @@
         <v>4151</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2001,13 +2001,13 @@
         <v>6237</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2016,13 +2016,13 @@
         <v>10388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2037,13 @@
         <v>610466</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -2052,13 +2052,13 @@
         <v>608027</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>1076</v>
@@ -2067,10 +2067,10 @@
         <v>1218492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2141,13 +2141,13 @@
         <v>10867</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2156,10 +2156,10 @@
         <v>6256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>79</v>
@@ -2207,13 +2207,13 @@
         <v>441544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>783</v>
@@ -2222,13 +2222,13 @@
         <v>860107</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,7 +2284,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2296,13 +2296,13 @@
         <v>27991</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2311,13 +2311,13 @@
         <v>44902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2326,13 +2326,13 @@
         <v>72893</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2347,13 @@
         <v>531646</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>653</v>
@@ -2362,13 +2362,13 @@
         <v>698073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>1132</v>
@@ -2377,13 +2377,13 @@
         <v>1229719</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2451,13 @@
         <v>52777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -2466,13 +2466,13 @@
         <v>65865</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -2481,13 +2481,13 @@
         <v>118642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2502,13 @@
         <v>3374002</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>3236</v>
@@ -2517,28 +2517,28 @@
         <v>3489233</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M23" s="7">
         <v>6398</v>
       </c>
       <c r="N23" s="7">
-        <v>6863235</v>
+        <v>6863236</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
         <v>6505</v>
       </c>
       <c r="N24" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2616,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1BD45C-1473-4ED9-99C6-E202742B3231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C7A795-E337-413D-A0BB-E58B41699FAF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2633,7 +2633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2740,13 +2740,13 @@
         <v>1007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2770,13 +2770,13 @@
         <v>1007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,10 +2791,10 @@
         <v>418456</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2809,7 +2809,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2916,7 +2916,7 @@
         <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2925,13 +2925,13 @@
         <v>3570</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,10 +2964,10 @@
         <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>1142</v>
@@ -2976,10 +2976,10 @@
         <v>1150470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>148</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3050,13 +3050,13 @@
         <v>921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3068,7 +3068,7 @@
         <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>151</v>
@@ -3080,13 +3080,13 @@
         <v>4638</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,10 +3101,10 @@
         <v>668176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3116,13 +3116,13 @@
         <v>657668</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>1298</v>
@@ -3131,13 +3131,13 @@
         <v>1325845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3193,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3205,13 +3205,13 @@
         <v>7381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3220,13 +3220,13 @@
         <v>4382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3235,13 +3235,13 @@
         <v>11763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3256,13 @@
         <v>638667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -3271,25 +3271,25 @@
         <v>644695</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>1173</v>
       </c>
       <c r="N14" s="7">
-        <v>1283362</v>
+        <v>1283363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>166</v>
@@ -3334,7 +3334,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3360,13 +3360,13 @@
         <v>11804</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3375,13 +3375,13 @@
         <v>13953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3390,13 +3390,13 @@
         <v>25757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3411,13 @@
         <v>466114</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -3426,13 +3426,13 @@
         <v>482896</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -3441,13 +3441,13 @@
         <v>949010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3503,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3515,13 +3515,13 @@
         <v>27925</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -3530,13 +3530,13 @@
         <v>46544</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -3545,13 +3545,13 @@
         <v>74468</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3566,13 @@
         <v>563403</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H20" s="7">
         <v>614</v>
@@ -3581,13 +3581,13 @@
         <v>731387</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>1209</v>
@@ -3596,13 +3596,13 @@
         <v>1294791</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3670,13 @@
         <v>49037</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -3685,13 +3685,13 @@
         <v>72166</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -3700,13 +3700,13 @@
         <v>121203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3721,13 @@
         <v>3345313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>3273</v>
@@ -3736,13 +3736,13 @@
         <v>3472376</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>6454</v>
@@ -3751,13 +3751,13 @@
         <v>6817689</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3835,7 +3835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F3C0AE-4485-4F29-887D-521CF07985F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A15940-F950-47A7-9E0E-625384BA332F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3852,7 +3852,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3965,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3974,13 +3974,13 @@
         <v>2733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3989,13 +3989,13 @@
         <v>2733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4013,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4025,10 +4025,10 @@
         <v>352224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4040,10 +4040,10 @@
         <v>729903</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4114,13 +4114,13 @@
         <v>1262</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4129,13 +4129,13 @@
         <v>6895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4144,13 +4144,13 @@
         <v>8158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,10 +4165,10 @@
         <v>427134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4180,13 +4180,13 @@
         <v>491682</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>754</v>
@@ -4195,13 +4195,13 @@
         <v>918815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,7 +4257,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4269,13 +4269,13 @@
         <v>9336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4284,13 +4284,13 @@
         <v>1363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4299,13 +4299,13 @@
         <v>10699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,16 +4317,16 @@
         <v>536</v>
       </c>
       <c r="D11" s="7">
-        <v>546772</v>
+        <v>546773</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>842</v>
@@ -4335,13 +4335,13 @@
         <v>581395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>1378</v>
@@ -4350,13 +4350,13 @@
         <v>1128167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556108</v>
+        <v>556109</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4424,13 +4424,13 @@
         <v>21825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4439,13 +4439,13 @@
         <v>15899</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -4454,13 +4454,13 @@
         <v>37724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4475,13 @@
         <v>702165</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>1114</v>
@@ -4490,13 +4490,13 @@
         <v>730478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>1757</v>
@@ -4505,13 +4505,13 @@
         <v>1432643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,7 +4567,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4579,13 +4579,13 @@
         <v>35185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -4594,13 +4594,13 @@
         <v>22087</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -4609,13 +4609,13 @@
         <v>57272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4630,13 @@
         <v>563901</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>960</v>
@@ -4645,13 +4645,13 @@
         <v>570174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>1580</v>
@@ -4660,13 +4660,13 @@
         <v>1134075</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,7 +4722,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4734,13 +4734,13 @@
         <v>96453</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H19" s="7">
         <v>250</v>
@@ -4749,13 +4749,13 @@
         <v>127751</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>411</v>
@@ -4764,13 +4764,13 @@
         <v>224204</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4785,13 @@
         <v>600524</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H20" s="7">
         <v>1456</v>
@@ -4800,13 +4800,13 @@
         <v>898329</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>2322</v>
@@ -4815,13 +4815,13 @@
         <v>1498854</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4889,13 @@
         <v>164062</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -4904,13 +4904,13 @@
         <v>176728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
@@ -4919,10 +4919,10 @@
         <v>340790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>307</v>
@@ -4940,13 +4940,13 @@
         <v>3218174</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H23" s="7">
         <v>5031</v>
@@ -4955,28 +4955,28 @@
         <v>3624282</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M23" s="7">
         <v>8169</v>
       </c>
       <c r="N23" s="7">
-        <v>6842457</v>
+        <v>6842456</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,7 +5018,7 @@
         <v>8728</v>
       </c>
       <c r="N24" s="7">
-        <v>7183247</v>
+        <v>7183246</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC8DDF96-0C58-42DD-BFD6-51EC9FB1E812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCFEE3C-130B-4C6D-BC11-192F63BA458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E556E71-AE3D-4485-9EDA-9FBE6CFB2950}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F3CB4DC-C6CF-46EE-8AA0-F480C8B1407D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -115,862 +115,862 @@
     <t>0,14%</t>
   </si>
   <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
   </si>
   <si>
     <t>94,75%</t>
@@ -1397,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EAC97B-1FD8-4A64-8A8E-66043DD89621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8285A305-BAD9-40BE-9FD1-5D3FFAF620F9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1709,10 +1709,10 @@
         <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,13 +1727,13 @@
         <v>682265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>568</v>
@@ -1742,13 +1742,13 @@
         <v>606507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>1232</v>
@@ -1757,13 +1757,13 @@
         <v>1288772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,7 +1819,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1831,13 +1831,13 @@
         <v>4946</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1846,13 +1846,13 @@
         <v>4723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -1861,13 +1861,13 @@
         <v>9669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1882,13 @@
         <v>676917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>662</v>
@@ -1897,13 +1897,13 @@
         <v>704851</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>1308</v>
@@ -1912,13 +1912,13 @@
         <v>1381768</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1986,13 +1986,13 @@
         <v>4151</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2001,13 +2001,13 @@
         <v>6237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2016,13 +2016,13 @@
         <v>10388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2037,13 @@
         <v>610466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -2052,13 +2052,13 @@
         <v>608027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>1076</v>
@@ -2067,10 +2067,10 @@
         <v>1218492</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2141,13 +2141,13 @@
         <v>10867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2156,13 +2156,13 @@
         <v>6256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2171,13 +2171,13 @@
         <v>17122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2192,13 @@
         <v>418562</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -2207,13 +2207,13 @@
         <v>441544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>783</v>
@@ -2451,13 +2451,13 @@
         <v>52777</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -2466,13 +2466,13 @@
         <v>65865</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -2481,13 +2481,13 @@
         <v>118642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2502,13 @@
         <v>3374002</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>3236</v>
@@ -2517,28 +2517,28 @@
         <v>3489233</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>6398</v>
       </c>
       <c r="N23" s="7">
-        <v>6863236</v>
+        <v>6863235</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
         <v>6505</v>
       </c>
       <c r="N24" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2616,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C7A795-E337-413D-A0BB-E58B41699FAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923AD6FE-4D14-4121-AF42-F2127CB13126}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2633,7 +2633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2740,13 +2740,13 @@
         <v>1007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2770,13 +2770,13 @@
         <v>1007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,10 +2791,10 @@
         <v>418456</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2809,7 +2809,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2821,10 +2821,10 @@
         <v>814211</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2901,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2910,13 +2910,13 @@
         <v>3570</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2925,13 +2925,13 @@
         <v>3570</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2961,13 +2961,13 @@
         <v>559974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>1142</v>
@@ -2976,13 +2976,13 @@
         <v>1150470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3038,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3056,7 +3056,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3065,13 +3065,13 @@
         <v>3718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3080,13 +3080,13 @@
         <v>4638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,10 +3101,10 @@
         <v>668176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3116,13 +3116,13 @@
         <v>657668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>1298</v>
@@ -3131,13 +3131,13 @@
         <v>1325845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3193,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3205,13 +3205,13 @@
         <v>7381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3220,13 +3220,13 @@
         <v>4382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3235,13 +3235,13 @@
         <v>11763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3256,13 @@
         <v>638667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -3271,28 +3271,28 @@
         <v>644695</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>1173</v>
       </c>
       <c r="N14" s="7">
-        <v>1283363</v>
+        <v>1283362</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3334,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3360,13 +3360,13 @@
         <v>11804</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3375,13 +3375,13 @@
         <v>13953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3390,13 +3390,13 @@
         <v>25757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3411,13 @@
         <v>466114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -3426,13 +3426,13 @@
         <v>482896</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -3441,13 +3441,13 @@
         <v>949010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3515,13 @@
         <v>27925</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -3530,13 +3530,13 @@
         <v>46544</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -3545,13 +3545,13 @@
         <v>74468</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3566,13 @@
         <v>563403</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>614</v>
@@ -3581,13 +3581,13 @@
         <v>731387</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>1209</v>
@@ -3596,13 +3596,13 @@
         <v>1294791</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3670,13 @@
         <v>49037</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -3685,13 +3685,13 @@
         <v>72166</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -3700,13 +3700,13 @@
         <v>121203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3721,13 @@
         <v>3345313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>3273</v>
@@ -3736,13 +3736,13 @@
         <v>3472376</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M23" s="7">
         <v>6454</v>
@@ -3751,13 +3751,13 @@
         <v>6817689</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3835,7 +3835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A15940-F950-47A7-9E0E-625384BA332F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860A5222-ABD1-4A46-88E9-0444F4281823}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,13 +3974,13 @@
         <v>2733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3989,13 +3989,13 @@
         <v>2733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4013,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4025,10 +4025,10 @@
         <v>352224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4040,10 +4040,10 @@
         <v>729903</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4114,13 +4114,13 @@
         <v>1262</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4129,13 +4129,13 @@
         <v>6895</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4144,13 +4144,13 @@
         <v>8158</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,10 +4165,10 @@
         <v>427134</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4290,7 +4290,7 @@
         <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4302,10 +4302,10 @@
         <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,7 +4338,7 @@
         <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>245</v>
@@ -4353,10 +4353,10 @@
         <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4412,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4430,7 +4430,7 @@
         <v>249</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4478,7 +4478,7 @@
         <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>257</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4585,7 +4585,7 @@
         <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>266</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -4594,13 +4594,13 @@
         <v>22087</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -4609,13 +4609,13 @@
         <v>57272</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4630,13 @@
         <v>563901</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>960</v>
@@ -4645,13 +4645,13 @@
         <v>570174</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>1580</v>
@@ -4660,13 +4660,13 @@
         <v>1134075</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4734,13 @@
         <v>96453</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>250</v>
@@ -4749,13 +4749,13 @@
         <v>127751</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>411</v>
@@ -4764,13 +4764,13 @@
         <v>224204</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4785,13 @@
         <v>600524</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>1456</v>
@@ -4800,13 +4800,13 @@
         <v>898329</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>2322</v>
@@ -4815,13 +4815,13 @@
         <v>1498854</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4889,13 @@
         <v>164062</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -4904,13 +4904,13 @@
         <v>176728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
@@ -4919,13 +4919,13 @@
         <v>340790</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4940,13 @@
         <v>3218174</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H23" s="7">
         <v>5031</v>
@@ -4955,7 +4955,7 @@
         <v>3624282</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>311</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCFEE3C-130B-4C6D-BC11-192F63BA458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6D7D5A6-E1AB-4F49-88E2-AA815E0E6EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F3CB4DC-C6CF-46EE-8AA0-F480C8B1407D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{342CB4D1-CE0C-42A6-8668-1DE8BB5FDBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -112,643 +112,664 @@
     <t>0,7%</t>
   </si>
   <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,1%</t>
+    <t>97,77%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,2%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,4%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,8%</t>
+    <t>98,49%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -757,235 +778,214 @@
     <t>0,03%</t>
   </si>
   <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
+    <t>99,13%</t>
+  </si>
+  <si>
     <t>99,97%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>98,34%</t>
-  </si>
-  <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>98,04%</t>
+    <t>95,27%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>96,84%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>4,38%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>5,16%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>95,62%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>94,84%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>86,16%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8285A305-BAD9-40BE-9FD1-5D3FFAF620F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F81BB08-8CA3-40A1-859B-86B16A7D238F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1849,7 +1849,7 @@
         <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>46</v>
@@ -1903,7 +1903,7 @@
         <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>1308</v>
@@ -2156,13 +2156,13 @@
         <v>6256</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2171,13 +2171,13 @@
         <v>17122</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2192,13 @@
         <v>418562</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>400</v>
@@ -2207,13 +2207,13 @@
         <v>441544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>783</v>
@@ -2222,13 +2222,13 @@
         <v>860107</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,7 +2284,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2296,13 +2296,13 @@
         <v>27991</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2311,13 +2311,13 @@
         <v>44902</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2326,13 +2326,13 @@
         <v>72893</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2347,13 @@
         <v>531646</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>653</v>
@@ -2362,13 +2362,13 @@
         <v>698073</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>1132</v>
@@ -2377,13 +2377,13 @@
         <v>1229719</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2451,13 @@
         <v>52777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -2466,13 +2466,13 @@
         <v>65865</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -2481,13 +2481,13 @@
         <v>118642</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2502,13 @@
         <v>3374002</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>3236</v>
@@ -2517,13 +2517,13 @@
         <v>3489233</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>6398</v>
@@ -2532,13 +2532,13 @@
         <v>6863235</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,7 +2594,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2616,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923AD6FE-4D14-4121-AF42-F2127CB13126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CE7FC5-A15E-4F4B-B63B-0BF44995893F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2633,7 +2633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2740,13 +2740,13 @@
         <v>1007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2770,13 +2770,13 @@
         <v>1007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,10 +2791,10 @@
         <v>418456</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2809,7 +2809,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2821,10 +2821,10 @@
         <v>814211</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2901,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2910,13 +2910,13 @@
         <v>3570</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2925,13 +2925,13 @@
         <v>3570</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2961,13 +2961,13 @@
         <v>559974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>1142</v>
@@ -2976,13 +2976,13 @@
         <v>1150470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3050,13 @@
         <v>921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3065,13 +3065,13 @@
         <v>3718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3080,13 +3080,13 @@
         <v>4638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,10 +3101,10 @@
         <v>668176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3116,13 +3116,13 @@
         <v>657668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>1298</v>
@@ -3131,13 +3131,13 @@
         <v>1325845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3205,13 @@
         <v>7381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3226,7 +3226,7 @@
         <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3235,13 +3235,13 @@
         <v>11763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3256,13 @@
         <v>638667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -3274,7 +3274,7 @@
         <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>69</v>
@@ -3286,13 +3286,13 @@
         <v>1283362</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3360,13 @@
         <v>11804</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3375,13 +3375,13 @@
         <v>13953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3390,13 +3390,13 @@
         <v>25757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3411,13 @@
         <v>466114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -3426,13 +3426,13 @@
         <v>482896</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -3441,13 +3441,13 @@
         <v>949010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3503,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3515,13 +3515,13 @@
         <v>27925</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -3530,13 +3530,13 @@
         <v>46544</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -3545,13 +3545,13 @@
         <v>74468</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3566,13 @@
         <v>563403</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H20" s="7">
         <v>614</v>
@@ -3581,13 +3581,13 @@
         <v>731387</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>1209</v>
@@ -3596,13 +3596,13 @@
         <v>1294791</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3670,13 @@
         <v>49037</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -3685,13 +3685,13 @@
         <v>72166</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -3700,13 +3700,13 @@
         <v>121203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3721,13 @@
         <v>3345313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H23" s="7">
         <v>3273</v>
@@ -3736,13 +3736,13 @@
         <v>3472376</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="M23" s="7">
         <v>6454</v>
@@ -3751,13 +3751,13 @@
         <v>6817689</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3835,7 +3835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860A5222-ABD1-4A46-88E9-0444F4281823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2933E7F5-D8C5-4DA7-B26A-2EDC578D07F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3852,7 +3852,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3965,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3974,13 +3974,13 @@
         <v>2733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3989,13 +3989,13 @@
         <v>2733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4013,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4025,10 +4025,10 @@
         <v>352224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4040,10 +4040,10 @@
         <v>729903</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4114,13 +4114,13 @@
         <v>1262</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4129,13 +4129,13 @@
         <v>6895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4144,13 +4144,13 @@
         <v>8158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,10 +4165,10 @@
         <v>427134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4180,13 +4180,13 @@
         <v>491682</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>754</v>
@@ -4195,13 +4195,13 @@
         <v>918815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4269,13 @@
         <v>9336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4284,13 +4284,13 @@
         <v>1363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4299,13 +4299,13 @@
         <v>10699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,16 +4317,16 @@
         <v>536</v>
       </c>
       <c r="D11" s="7">
-        <v>546773</v>
+        <v>546772</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>842</v>
@@ -4335,13 +4335,13 @@
         <v>581395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>1378</v>
@@ -4350,13 +4350,13 @@
         <v>1128167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556109</v>
+        <v>556108</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4424,13 +4424,13 @@
         <v>21825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4439,13 +4439,13 @@
         <v>15899</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -4454,13 +4454,13 @@
         <v>37724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4475,13 @@
         <v>702165</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>1114</v>
@@ -4490,13 +4490,13 @@
         <v>730478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>1757</v>
@@ -4505,13 +4505,13 @@
         <v>1432643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4579,13 @@
         <v>35185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -4594,13 +4594,13 @@
         <v>22087</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -4609,13 +4609,13 @@
         <v>57272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4630,13 @@
         <v>563901</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>960</v>
@@ -4645,13 +4645,13 @@
         <v>570174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>1580</v>
@@ -4660,13 +4660,13 @@
         <v>1134075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,7 +4722,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4734,13 +4734,13 @@
         <v>96453</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H19" s="7">
         <v>250</v>
@@ -4749,13 +4749,13 @@
         <v>127751</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>411</v>
@@ -4764,13 +4764,13 @@
         <v>224204</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4785,13 @@
         <v>600524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
         <v>1456</v>
@@ -4800,13 +4800,13 @@
         <v>898329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>2322</v>
@@ -4815,13 +4815,13 @@
         <v>1498854</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4889,13 @@
         <v>164062</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>324</v>
@@ -4904,13 +4904,13 @@
         <v>176728</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>559</v>
@@ -4919,13 +4919,13 @@
         <v>340790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4940,13 @@
         <v>3218174</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H23" s="7">
         <v>5031</v>
@@ -4955,28 +4955,28 @@
         <v>3624282</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M23" s="7">
         <v>8169</v>
       </c>
       <c r="N23" s="7">
-        <v>6842456</v>
+        <v>6842457</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,7 +5018,7 @@
         <v>8728</v>
       </c>
       <c r="N24" s="7">
-        <v>7183246</v>
+        <v>7183247</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6D7D5A6-E1AB-4F49-88E2-AA815E0E6EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{603A9478-5193-467C-AB3A-417DB0EA20CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{342CB4D1-CE0C-42A6-8668-1DE8BB5FDBF5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2EC60452-EE47-4A3D-A3CC-D0575AACC689}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="365">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -163,7 +163,7 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -214,7 +214,7 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -265,7 +265,7 @@
     <t>98,57%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,53%</t>
@@ -310,682 +310,829 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1544,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F81BB08-8CA3-40A1-859B-86B16A7D238F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A107F825-9CCD-47C6-AAEA-F5D9C03C134A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2290,10 +2437,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>27991</v>
+        <v>17387</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>91</v>
@@ -2305,34 +2452,34 @@
         <v>93</v>
       </c>
       <c r="H19" s="7">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>44902</v>
+        <v>6891</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>22</v>
+      </c>
+      <c r="N19" s="7">
+        <v>24278</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M19" s="7">
-        <v>66</v>
-      </c>
-      <c r="N19" s="7">
-        <v>72893</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,49 +2488,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>479</v>
+        <v>267</v>
       </c>
       <c r="D20" s="7">
-        <v>531646</v>
+        <v>292399</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>337</v>
+      </c>
+      <c r="I20" s="7">
+        <v>347105</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="7">
-        <v>653</v>
-      </c>
-      <c r="I20" s="7">
-        <v>698073</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>604</v>
+      </c>
+      <c r="N20" s="7">
+        <v>639504</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="7">
-        <v>1132</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1229719</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,10 +2539,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2407,10 +2554,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2422,10 +2569,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2439,52 +2586,52 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>52777</v>
+        <v>10604</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>34</v>
+      </c>
+      <c r="I22" s="7">
+        <v>38011</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="7">
-        <v>60</v>
-      </c>
-      <c r="I22" s="7">
-        <v>65865</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>44</v>
+      </c>
+      <c r="N22" s="7">
+        <v>48614</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="7">
-        <v>107</v>
-      </c>
-      <c r="N22" s="7">
-        <v>118642</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>116</v>
@@ -2496,10 +2643,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3162</v>
+        <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>3374002</v>
+        <v>239247</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>117</v>
@@ -2511,10 +2658,10 @@
         <v>119</v>
       </c>
       <c r="H23" s="7">
-        <v>3236</v>
+        <v>316</v>
       </c>
       <c r="I23" s="7">
-        <v>3489233</v>
+        <v>350968</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>120</v>
@@ -2526,10 +2673,10 @@
         <v>122</v>
       </c>
       <c r="M23" s="7">
-        <v>6398</v>
+        <v>528</v>
       </c>
       <c r="N23" s="7">
-        <v>6863235</v>
+        <v>590216</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>123</v>
@@ -2538,7 +2685,7 @@
         <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,63 +2694,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>47</v>
+      </c>
+      <c r="D25" s="7">
+        <v>52777</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="7">
+        <v>60</v>
+      </c>
+      <c r="I25" s="7">
+        <v>65865</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M25" s="7">
+        <v>107</v>
+      </c>
+      <c r="N25" s="7">
+        <v>118642</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3162</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3374002</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3236</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3489233</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6398</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6863235</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2616,8 +2919,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CE7FC5-A15E-4F4B-B63B-0BF44995893F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB3A179-0665-4387-B453-CA43522E77CF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2633,7 +2936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2740,13 +3043,13 @@
         <v>1007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2761,7 +3064,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2770,13 +3073,13 @@
         <v>1007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,10 +3094,10 @@
         <v>418456</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2809,7 +3112,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2821,10 +3124,10 @@
         <v>814211</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2901,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2910,10 +3213,10 @@
         <v>3570</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>44</v>
@@ -2925,13 +3228,13 @@
         <v>3570</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,7 +3252,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2961,13 +3264,13 @@
         <v>559974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>1142</v>
@@ -2976,13 +3279,13 @@
         <v>1150470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3353,7 @@
         <v>921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -3065,13 +3368,13 @@
         <v>3718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3080,13 +3383,13 @@
         <v>4638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,7 +3404,7 @@
         <v>668176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>55</v>
@@ -3116,13 +3419,13 @@
         <v>657668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1298</v>
@@ -3131,13 +3434,13 @@
         <v>1325845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3508,13 @@
         <v>7381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3226,7 +3529,7 @@
         <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3235,10 +3538,10 @@
         <v>11763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>44</v>
@@ -3256,13 +3559,13 @@
         <v>638667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -3274,7 +3577,7 @@
         <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>69</v>
@@ -3286,13 +3589,13 @@
         <v>1283362</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3663,13 @@
         <v>11804</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3375,13 +3678,13 @@
         <v>13953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3390,13 +3693,13 @@
         <v>25757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3714,13 @@
         <v>466114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -3426,13 +3729,13 @@
         <v>482896</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -3441,10 +3744,10 @@
         <v>949010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>54</v>
@@ -3509,49 +3812,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>27925</v>
+        <v>5964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>46544</v>
+        <v>24566</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N19" s="7">
-        <v>74468</v>
+        <v>30531</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,49 +3863,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>595</v>
+        <v>319</v>
       </c>
       <c r="D20" s="7">
-        <v>563403</v>
+        <v>328366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
-        <v>614</v>
+        <v>330</v>
       </c>
       <c r="I20" s="7">
-        <v>731387</v>
+        <v>353196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
-        <v>1209</v>
+        <v>649</v>
       </c>
       <c r="N20" s="7">
-        <v>1294791</v>
+        <v>681561</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,10 +3914,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3626,10 +3929,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3641,10 +3944,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3658,55 +3961,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D22" s="7">
-        <v>49037</v>
+        <v>21960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I22" s="7">
-        <v>72166</v>
+        <v>21978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="N22" s="7">
-        <v>121203</v>
+        <v>43938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,49 +4018,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3181</v>
+        <v>276</v>
       </c>
       <c r="D23" s="7">
-        <v>3345313</v>
+        <v>235038</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H23" s="7">
-        <v>3273</v>
+        <v>284</v>
       </c>
       <c r="I23" s="7">
-        <v>3472376</v>
+        <v>378191</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="M23" s="7">
-        <v>6454</v>
+        <v>560</v>
       </c>
       <c r="N23" s="7">
-        <v>6817689</v>
+        <v>613229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,63 +4069,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7">
+        <v>49037</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" s="7">
+        <v>65</v>
+      </c>
+      <c r="I25" s="7">
+        <v>72166</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" s="7">
+        <v>115</v>
+      </c>
+      <c r="N25" s="7">
+        <v>121203</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3181</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3345313</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3273</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3472376</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6454</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6817689</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3835,8 +4294,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2933E7F5-D8C5-4DA7-B26A-2EDC578D07F7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B829A0C9-9923-4FE8-B436-4505610824F1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3852,7 +4311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3965,37 +4424,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2733</v>
+        <v>2499</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2733</v>
+        <v>2499</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4466,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4022,13 +4481,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>352224</v>
+        <v>310701</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4037,13 +4496,13 @@
         <v>378</v>
       </c>
       <c r="N5" s="7">
-        <v>729903</v>
+        <v>710688</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4058,7 +4517,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4073,7 +4532,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4088,7 +4547,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4111,46 +4570,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1262</v>
+        <v>1271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>6895</v>
+        <v>6266</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>8158</v>
+        <v>7538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4621,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>427134</v>
+        <v>422276</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4177,31 +4636,31 @@
         <v>453</v>
       </c>
       <c r="I8" s="7">
-        <v>491682</v>
+        <v>505238</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>754</v>
       </c>
       <c r="N8" s="7">
-        <v>918815</v>
+        <v>927513</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,7 +4672,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4228,7 +4687,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4243,7 +4702,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4266,46 +4725,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>9336</v>
+        <v>8672</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1363</v>
+        <v>1305</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>10699</v>
+        <v>9977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,43 +4776,43 @@
         <v>536</v>
       </c>
       <c r="D11" s="7">
-        <v>546772</v>
+        <v>526495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>842</v>
       </c>
       <c r="I11" s="7">
-        <v>581395</v>
+        <v>540494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1378</v>
       </c>
       <c r="N11" s="7">
-        <v>1128167</v>
+        <v>1066989</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>20</v>
@@ -4368,7 +4827,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556108</v>
+        <v>535167</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4383,7 +4842,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4398,7 +4857,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138866</v>
+        <v>1076966</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4421,46 +4880,46 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>21825</v>
+        <v>21164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>15899</v>
+        <v>14668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>37724</v>
+        <v>35832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,46 +4931,46 @@
         <v>643</v>
       </c>
       <c r="D14" s="7">
-        <v>702165</v>
+        <v>866622</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>1114</v>
       </c>
       <c r="I14" s="7">
-        <v>730478</v>
+        <v>697398</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>1757</v>
       </c>
       <c r="N14" s="7">
-        <v>1432643</v>
+        <v>1564020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,7 +4982,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4538,7 +4997,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746377</v>
+        <v>712066</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4553,7 +5012,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470367</v>
+        <v>1599852</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4576,46 +5035,46 @@
         <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>35185</v>
+        <v>32996</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>22087</v>
+        <v>20511</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
       </c>
       <c r="N16" s="7">
-        <v>57272</v>
+        <v>53507</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,46 +5086,46 @@
         <v>620</v>
       </c>
       <c r="D17" s="7">
-        <v>563901</v>
+        <v>527241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>960</v>
       </c>
       <c r="I17" s="7">
-        <v>570174</v>
+        <v>523146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>1580</v>
       </c>
       <c r="N17" s="7">
-        <v>1134075</v>
+        <v>1050386</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,7 +5137,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4693,7 +5152,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>592261</v>
+        <v>543657</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4708,7 +5167,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1191347</v>
+        <v>1103893</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4728,49 +5187,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>96453</v>
+        <v>32251</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="H19" s="7">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7">
-        <v>127751</v>
+        <v>27582</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
-        <v>411</v>
+        <v>111</v>
       </c>
       <c r="N19" s="7">
-        <v>224204</v>
+        <v>59833</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,49 +5238,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>866</v>
+        <v>514</v>
       </c>
       <c r="D20" s="7">
-        <v>600524</v>
+        <v>335196</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
-        <v>1456</v>
+        <v>770</v>
       </c>
       <c r="I20" s="7">
-        <v>898329</v>
+        <v>580426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
-        <v>2322</v>
+        <v>1284</v>
       </c>
       <c r="N20" s="7">
-        <v>1498854</v>
+        <v>915622</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,10 +5289,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696977</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4845,10 +5304,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1026080</v>
+        <v>608008</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4860,10 +5319,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1395</v>
       </c>
       <c r="N21" s="7">
-        <v>1723058</v>
+        <v>975455</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4877,55 +5336,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="D22" s="7">
-        <v>164062</v>
+        <v>57782</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="I22" s="7">
-        <v>176728</v>
+        <v>87569</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
-        <v>559</v>
+        <v>300</v>
       </c>
       <c r="N22" s="7">
-        <v>340790</v>
+        <v>145351</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,49 +5393,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3138</v>
+        <v>352</v>
       </c>
       <c r="D23" s="7">
-        <v>3218174</v>
+        <v>224977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="H23" s="7">
-        <v>5031</v>
+        <v>686</v>
       </c>
       <c r="I23" s="7">
-        <v>3624282</v>
+        <v>338102</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="M23" s="7">
-        <v>8169</v>
+        <v>1038</v>
       </c>
       <c r="N23" s="7">
-        <v>6842457</v>
+        <v>563079</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,63 +5444,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425671</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708430</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>235</v>
+      </c>
+      <c r="D25" s="7">
+        <v>154136</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H25" s="7">
+        <v>324</v>
+      </c>
+      <c r="I25" s="7">
+        <v>160400</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M25" s="7">
+        <v>559</v>
+      </c>
+      <c r="N25" s="7">
+        <v>314536</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3138</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3302794</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5031</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3495504</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8169</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6798298</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3373</v>
       </c>
-      <c r="D24" s="7">
-        <v>3382236</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3456930</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5355</v>
       </c>
-      <c r="I24" s="7">
-        <v>3801010</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3655904</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8728</v>
       </c>
-      <c r="N24" s="7">
-        <v>7183247</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="N27" s="7">
+        <v>7112834</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
